--- a/pandas/pca.xlsx
+++ b/pandas/pca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5229521-E504-417B-9E36-294DDE69AFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9670EF93-52CB-423D-881D-E7EAD2476EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
@@ -456,6 +456,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -515,11 +520,6 @@
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="22" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -844,7 +844,7 @@
   <dimension ref="A1:O10008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -862,141 +862,141 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">CELL("filename",B1)</f>
-        <v>D:\github\xlslim-code-samples\pandas\pca.xlsx</v>
+        <f t="array" ref="B1">_xll.WorkbookLocation()</f>
+        <v>D:\github\xlslim-code-samples\pandas</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f ca="1">LEFT(B1,FIND("pca",B1)-1)&amp;"pca.py"</f>
+        <f>B1&amp;"\pca.py"</f>
         <v>D:\github\xlslim-code-samples\pandas\pca.py</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f ca="1">LEFT(B1,FIND("pca",B1)-1)&amp;"yfinance_data.py"</f>
+        <f>B1&amp;"\yfinance_data.py"</f>
         <v>D:\github\xlslim-code-samples\pandas\yfinance_data.py</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">_xll.RegisterPyModule(B2)</f>
+        <f t="array" ref="B4">_xll.RegisterPyModule(B2)</f>
         <v>Registered D:\github\xlslim-code-samples\pandas\pca.py</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">_xll.RegisterPyModule(B3)</f>
+        <f t="array" ref="B5">_xll.RegisterPyModule(B3)</f>
         <v>Registered D:\github\xlslim-code-samples\pandas\yfinance_data.py</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H7"/>
@@ -1005,33 +1005,33 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="str" cm="1">
         <f t="array" ref="A8">_xll.get_historical_prices(B6,B7)</f>
-        <v>[pca.xlsx]pca$A$8@29</v>
+        <v>[pca.xlsx]pca$A$8@6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="str" cm="1">
         <f t="array" ref="A9">_xll.get_historical_prices(C6,C7)</f>
-        <v>[pca.xlsx]pca$A$9@29</v>
+        <v>[pca.xlsx]pca$A$9@6</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="H9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="str" cm="1">
         <f t="array" ref="A10">_xll.get_historical_prices(D6,D7)</f>
-        <v>[pca.xlsx]pca$A$10@29</v>
+        <v>[pca.xlsx]pca$A$10@6</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
       <c r="H10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -1043,269 +1043,269 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="str" cm="1">
         <f t="array" ref="A12">_xll.pca(A8:A10,-1)</f>
-        <v>[pca.xlsx]pca$A$12@23</v>
+        <v>[pca.xlsx]pca$A$12@6</v>
       </c>
-      <c r="B12" s="27" cm="1">
+      <c r="B12" s="7" cm="1">
         <f t="array" ref="B12:D33">_xll.ViewPyObject(A12)</f>
-        <v>0.14704180999277366</v>
+        <v>-0.11047446787648528</v>
       </c>
-      <c r="C12" s="27">
-        <v>-2.7755575615628914E-17</v>
+      <c r="C12" s="7">
+        <v>-1.7347234759768071E-17</v>
       </c>
-      <c r="D12" s="27">
-        <v>2.7755575615628914E-17</v>
+      <c r="D12" s="7">
+        <v>6.9388939039072284E-18</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="27">
-        <v>-2.2424373623478688</v>
+      <c r="B13" s="7">
+        <v>1.4118244080577464</v>
       </c>
-      <c r="C13" s="27">
-        <v>3.3306690738754696E-16</v>
+      <c r="C13" s="7">
+        <v>2.7755575615628914E-16</v>
       </c>
-      <c r="D13" s="27">
-        <v>-3.3306690738754696E-16</v>
+      <c r="D13" s="7">
+        <v>0</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="27">
-        <v>1.6850432126332326</v>
+      <c r="B14" s="7">
+        <v>0.11777861051935806</v>
       </c>
-      <c r="C14" s="27">
-        <v>-3.3306690738754696E-16</v>
+      <c r="C14" s="7">
+        <v>1.7347234759768071E-17</v>
       </c>
-      <c r="D14" s="27">
-        <v>2.2204460492503131E-16</v>
+      <c r="D14" s="7">
+        <v>-6.9388939039072284E-18</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="28">
-        <v>0.3776493209615831</v>
+      <c r="B15" s="8">
+        <v>-0.83661431142062304</v>
       </c>
-      <c r="C15" s="28">
-        <v>-8.3266726846886741E-17</v>
+      <c r="C15" s="8">
+        <v>-1.3877787807814457E-16</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="8">
         <v>5.5511151231257827E-17</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="28">
-        <v>-0.58658817262061214</v>
+      <c r="B16" s="8">
+        <v>0.72876872307966767</v>
       </c>
-      <c r="C16" s="28">
-        <v>1.1102230246251565E-16</v>
+      <c r="C16" s="8">
+        <v>8.3266726846886741E-17</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="8">
         <v>-5.5511151231257827E-17</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="28">
-        <v>0.99494180207210992</v>
+      <c r="B17" s="8">
+        <v>-3.6340055251716916</v>
       </c>
-      <c r="C17" s="28">
-        <v>-1.6653345369377348E-16</v>
+      <c r="C17" s="8">
+        <v>-5.5511151231257827E-16</v>
       </c>
-      <c r="D17" s="28">
-        <v>1.3877787807814457E-16</v>
+      <c r="D17" s="8">
+        <v>2.2204460492503131E-16</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="28">
-        <v>-3.4128345021023101</v>
+      <c r="B18" s="8">
+        <v>0.18600374715121901</v>
       </c>
-      <c r="C18" s="28">
-        <v>6.6613381477509392E-16</v>
+      <c r="C18" s="8">
+        <v>3.4694469519536142E-17</v>
       </c>
-      <c r="D18" s="28">
-        <v>-5.5511151231257827E-16</v>
+      <c r="D18" s="8">
+        <v>-1.3877787807814457E-17</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="28">
-        <v>0.44657820049632213</v>
+      <c r="B19" s="8">
+        <v>2.1531706260559438</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="8">
+        <v>4.4408920985006262E-16</v>
+      </c>
+      <c r="D19" s="8">
         <v>-1.1102230246251565E-16</v>
       </c>
-      <c r="D19" s="28">
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="8">
+        <v>-1.0109709842641279</v>
+      </c>
+      <c r="C20" s="8">
+        <v>-1.9428902930940239E-16</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5.5511151231257827E-17</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="8">
+        <v>-2.4206901031856924</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="8">
+        <v>0.30355569193029247</v>
+      </c>
+      <c r="C22" s="8">
         <v>4.163336342344337E-17</v>
       </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="28">
-        <v>2.4340364235910306</v>
-      </c>
-      <c r="C20" s="28">
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="D20" s="28">
-        <v>3.3306690738754696E-16</v>
-      </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="28">
-        <v>-0.76274333612519307</v>
-      </c>
-      <c r="C21" s="28">
-        <v>1.1102230246251565E-16</v>
-      </c>
-      <c r="D21" s="28">
-        <v>-1.1102230246251565E-16</v>
-      </c>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="28">
-        <v>-2.1870037205387654</v>
-      </c>
-      <c r="C22" s="28">
-        <v>3.3306690738754696E-16</v>
-      </c>
-      <c r="D22" s="28">
-        <v>-3.3306690738754696E-16</v>
+      <c r="D22" s="8">
+        <v>-1.3877787807814457E-17</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="28">
-        <v>0.56534269465150244</v>
+      <c r="B23" s="8">
+        <v>3.7018290155948907</v>
       </c>
-      <c r="C23" s="28">
-        <v>-1.1102230246251565E-16</v>
+      <c r="C23" s="8">
+        <v>5.5511151231257827E-16</v>
       </c>
-      <c r="D23" s="28">
-        <v>2.7755575615628914E-17</v>
+      <c r="D23" s="8">
+        <v>-2.2204460492503131E-16</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="28">
-        <v>3.9986692384580107</v>
+      <c r="B24" s="8">
+        <v>0.63829513734472521</v>
       </c>
-      <c r="C24" s="28">
-        <v>-8.8817841970012523E-16</v>
+      <c r="C24" s="8">
+        <v>8.3266726846886741E-17</v>
       </c>
-      <c r="D24" s="28">
-        <v>5.5511151231257827E-16</v>
+      <c r="D24" s="8">
+        <v>0</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="28">
-        <v>0.90353498048008962</v>
+      <c r="B25" s="8">
+        <v>-2.0792410858189694</v>
       </c>
-      <c r="C25" s="28">
-        <v>-1.6653345369377348E-16</v>
+      <c r="C25" s="8">
+        <v>-3.8857805861880479E-16</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="8">
         <v>1.1102230246251565E-16</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="28">
-        <v>-1.8420326534623719</v>
+      <c r="B26" s="8">
+        <v>2.2598327583003308</v>
       </c>
-      <c r="C26" s="28">
-        <v>3.3306690738754696E-16</v>
+      <c r="C26" s="8">
+        <v>2.2204460492503131E-16</v>
       </c>
-      <c r="D26" s="28">
-        <v>-1.6653345369377348E-16</v>
+      <c r="D26" s="8">
+        <v>-1.1102230246251565E-16</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="28">
-        <v>2.5417987766965036</v>
+      <c r="B27" s="8">
+        <v>-0.50425841571222441</v>
       </c>
-      <c r="C27" s="28">
-        <v>-4.4408920985006262E-16</v>
+      <c r="C27" s="8">
+        <v>-6.9388939039072284E-17</v>
       </c>
-      <c r="D27" s="28">
-        <v>3.3306690738754696E-16</v>
+      <c r="D27" s="8">
+        <v>5.5511151231257827E-17</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="28">
-        <v>-0.25080402283488579</v>
+      <c r="B28" s="8">
+        <v>-0.51533201519569083</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="8">
+        <v>-6.9388939039072284E-17</v>
+      </c>
+      <c r="D28" s="8">
         <v>5.5511151231257827E-17</v>
       </c>
-      <c r="D28" s="28">
-        <v>-3.4694469519536142E-17</v>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="8">
+        <v>-0.50003996137100915</v>
       </c>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="28">
-        <v>-0.26199184659741598</v>
+      <c r="C29" s="8">
+        <v>-8.3266726846886741E-17</v>
       </c>
-      <c r="C29" s="28">
+      <c r="D29" s="8">
         <v>5.5511151231257827E-17</v>
       </c>
-      <c r="D29" s="28">
-        <v>-4.163336342344337E-17</v>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="8">
+        <v>0.63589156830825844</v>
       </c>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="28">
-        <v>-0.24654205509889685</v>
+      <c r="C30" s="8">
+        <v>8.3266726846886741E-17</v>
       </c>
-      <c r="C30" s="28">
-        <v>4.163336342344337E-17</v>
-      </c>
-      <c r="D30" s="28">
-        <v>-2.7755575615628914E-17</v>
+      <c r="D30" s="8">
+        <v>-5.5511151231257827E-17</v>
       </c>
       <c r="H30"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="28">
-        <v>0.90110661860722141</v>
+      <c r="B31" s="8">
+        <v>-2.2755203867553857</v>
       </c>
-      <c r="C31" s="28">
-        <v>-1.6653345369377348E-16</v>
+      <c r="C31" s="8">
+        <v>-3.3306690738754696E-16</v>
       </c>
-      <c r="D31" s="28">
-        <v>1.3877787807814457E-16</v>
+      <c r="D31" s="8">
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="H31"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="28">
-        <v>-2.0403365771673903</v>
+      <c r="B32" s="8">
+        <v>-0.92407994509884872</v>
       </c>
-      <c r="C32" s="28">
-        <v>4.4408920985006262E-16</v>
+      <c r="C32" s="8">
+        <v>-1.3877787807814457E-16</v>
       </c>
-      <c r="D32" s="28">
-        <v>-2.2204460492503131E-16</v>
+      <c r="D32" s="8">
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="H32"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="28">
-        <v>-1.1624288297446697</v>
+      <c r="B33" s="8">
+        <v>2.6742769155283153</v>
       </c>
-      <c r="C33" s="28">
-        <v>2.2204460492503131E-16</v>
+      <c r="C33" s="8">
+        <v>5.5511151231257827E-16</v>
       </c>
-      <c r="D33" s="28">
-        <v>-1.1102230246251565E-16</v>
+      <c r="D33" s="8">
+        <v>0</v>
       </c>
       <c r="H33"/>
     </row>
@@ -61171,21 +61171,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056A28DAB99C48B469009752D21F8474A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3725108ba1e248dd961cbde49d36f75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a034177a2e5a667d336d2ca3036430" ns3:_="">
     <xsd:import namespace="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
@@ -61317,10 +61302,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C9D94B-68A3-4C5A-8543-29DBB1AA8066}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -61342,19 +61352,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C9D94B-68A3-4C5A-8543-29DBB1AA8066}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>